--- a/natmiOut/OldD7/LR-pairs_lrc2p/F11r-Jam2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/F11r-Jam2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Jam2</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.640155228909</v>
+        <v>28.10250466666666</v>
       </c>
       <c r="H2">
-        <v>27.640155228909</v>
+        <v>84.307514</v>
       </c>
       <c r="I2">
-        <v>0.8033662302111446</v>
+        <v>0.7888396529227739</v>
       </c>
       <c r="J2">
-        <v>0.8033662302111446</v>
+        <v>0.788839652922774</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>107.546156155787</v>
+        <v>112.530174</v>
       </c>
       <c r="N2">
-        <v>107.546156155787</v>
+        <v>337.590522</v>
       </c>
       <c r="O2">
-        <v>0.93966271578105</v>
+        <v>0.9393123470743489</v>
       </c>
       <c r="P2">
-        <v>0.93966271578105</v>
+        <v>0.9393123470743489</v>
       </c>
       <c r="Q2">
-        <v>2972.59245041844</v>
+        <v>3162.379739975812</v>
       </c>
       <c r="R2">
-        <v>2972.59245041844</v>
+        <v>28461.41765978231</v>
       </c>
       <c r="S2">
-        <v>0.7548932936469883</v>
+        <v>0.7409668258522055</v>
       </c>
       <c r="T2">
-        <v>0.7548932936469883</v>
+        <v>0.7409668258522056</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.640155228909</v>
+        <v>28.10250466666666</v>
       </c>
       <c r="H3">
-        <v>27.640155228909</v>
+        <v>84.307514</v>
       </c>
       <c r="I3">
-        <v>0.8033662302111446</v>
+        <v>0.7888396529227739</v>
       </c>
       <c r="J3">
-        <v>0.8033662302111446</v>
+        <v>0.788839652922774</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.06730020961934</v>
+        <v>5.188952666666666</v>
       </c>
       <c r="N3">
-        <v>5.06730020961934</v>
+        <v>15.566858</v>
       </c>
       <c r="O3">
-        <v>0.04427450730783349</v>
+        <v>0.04331324777107665</v>
       </c>
       <c r="P3">
-        <v>0.04427450730783349</v>
+        <v>0.04331324777107665</v>
       </c>
       <c r="Q3">
-        <v>140.0609643853617</v>
+        <v>145.8225665301124</v>
       </c>
       <c r="R3">
-        <v>140.0609643853617</v>
+        <v>1312.403098771012</v>
       </c>
       <c r="S3">
-        <v>0.03556864403034996</v>
+        <v>0.03416720733869422</v>
       </c>
       <c r="T3">
-        <v>0.03556864403034996</v>
+        <v>0.03416720733869422</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.640155228909</v>
+        <v>28.10250466666666</v>
       </c>
       <c r="H4">
-        <v>27.640155228909</v>
+        <v>84.307514</v>
       </c>
       <c r="I4">
-        <v>0.8033662302111446</v>
+        <v>0.7888396529227739</v>
       </c>
       <c r="J4">
-        <v>0.8033662302111446</v>
+        <v>0.788839652922774</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.83841487479113</v>
+        <v>0.202917</v>
       </c>
       <c r="N4">
-        <v>1.83841487479113</v>
+        <v>0.608751</v>
       </c>
       <c r="O4">
-        <v>0.01606277691111656</v>
+        <v>0.001693789645533523</v>
       </c>
       <c r="P4">
-        <v>0.01606277691111656</v>
+        <v>0.001693789645533523</v>
       </c>
       <c r="Q4">
-        <v>50.81407251436213</v>
+        <v>5.702475939446</v>
       </c>
       <c r="R4">
-        <v>50.81407251436213</v>
+        <v>51.322283455014</v>
       </c>
       <c r="S4">
-        <v>0.01290429253380633</v>
+        <v>0.001336128436106852</v>
       </c>
       <c r="T4">
-        <v>0.01290429253380633</v>
+        <v>0.001336128436106852</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.2547454300976</v>
+        <v>28.10250466666666</v>
       </c>
       <c r="H5">
-        <v>6.2547454300976</v>
+        <v>84.307514</v>
       </c>
       <c r="I5">
-        <v>0.1817953341974133</v>
+        <v>0.7888396529227739</v>
       </c>
       <c r="J5">
-        <v>0.1817953341974133</v>
+        <v>0.788839652922774</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>107.546156155787</v>
+        <v>1.878547</v>
       </c>
       <c r="N5">
-        <v>107.546156155787</v>
+        <v>5.635641</v>
       </c>
       <c r="O5">
-        <v>0.93966271578105</v>
+        <v>0.01568061550904095</v>
       </c>
       <c r="P5">
-        <v>0.93966271578105</v>
+        <v>0.01568061550904095</v>
       </c>
       <c r="Q5">
-        <v>672.6738287399717</v>
+        <v>52.79187583405266</v>
       </c>
       <c r="R5">
-        <v>672.6738287399717</v>
+        <v>475.126882506474</v>
       </c>
       <c r="S5">
-        <v>0.170826297448265</v>
+        <v>0.01236949129576733</v>
       </c>
       <c r="T5">
-        <v>0.170826297448265</v>
+        <v>0.01236949129576733</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>6.2547454300976</v>
+        <v>0.06926433333333333</v>
       </c>
       <c r="H6">
-        <v>6.2547454300976</v>
+        <v>0.207793</v>
       </c>
       <c r="I6">
-        <v>0.1817953341974133</v>
+        <v>0.001944255621151182</v>
       </c>
       <c r="J6">
-        <v>0.1817953341974133</v>
+        <v>0.001944255621151182</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.06730020961934</v>
+        <v>112.530174</v>
       </c>
       <c r="N6">
-        <v>5.06730020961934</v>
+        <v>337.590522</v>
       </c>
       <c r="O6">
-        <v>0.04427450730783349</v>
+        <v>0.9393123470743489</v>
       </c>
       <c r="P6">
-        <v>0.04427450730783349</v>
+        <v>0.9393123470743489</v>
       </c>
       <c r="Q6">
-        <v>31.69467282904918</v>
+        <v>7.794327481994</v>
       </c>
       <c r="R6">
-        <v>31.69467282904918</v>
+        <v>70.14894733794601</v>
       </c>
       <c r="S6">
-        <v>0.008048898852453407</v>
+        <v>0.001826263310816013</v>
       </c>
       <c r="T6">
-        <v>0.008048898852453407</v>
+        <v>0.001826263310816013</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,185 +832,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>6.2547454300976</v>
+        <v>0.06926433333333333</v>
       </c>
       <c r="H7">
-        <v>6.2547454300976</v>
+        <v>0.207793</v>
       </c>
       <c r="I7">
-        <v>0.1817953341974133</v>
+        <v>0.001944255621151182</v>
       </c>
       <c r="J7">
-        <v>0.1817953341974133</v>
+        <v>0.001944255621151182</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.83841487479113</v>
+        <v>5.188952666666666</v>
       </c>
       <c r="N7">
-        <v>1.83841487479113</v>
+        <v>15.566858</v>
       </c>
       <c r="O7">
-        <v>0.01606277691111656</v>
+        <v>0.04331324777107665</v>
       </c>
       <c r="P7">
-        <v>0.01606277691111656</v>
+        <v>0.04331324777107665</v>
       </c>
       <c r="Q7">
-        <v>11.49881703672327</v>
+        <v>0.3594093471548889</v>
       </c>
       <c r="R7">
-        <v>11.49881703672327</v>
+        <v>3.234684124394</v>
       </c>
       <c r="S7">
-        <v>0.002920137896694931</v>
+        <v>8.421202544922968E-05</v>
       </c>
       <c r="T7">
-        <v>0.002920137896694931</v>
+        <v>8.421202544922969E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.510522657883984</v>
+        <v>0.06926433333333333</v>
       </c>
       <c r="H8">
-        <v>0.510522657883984</v>
+        <v>0.207793</v>
       </c>
       <c r="I8">
-        <v>0.01483843559144219</v>
+        <v>0.001944255621151182</v>
       </c>
       <c r="J8">
-        <v>0.01483843559144219</v>
+        <v>0.001944255621151182</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>107.546156155787</v>
+        <v>0.202917</v>
       </c>
       <c r="N8">
-        <v>107.546156155787</v>
+        <v>0.608751</v>
       </c>
       <c r="O8">
-        <v>0.93966271578105</v>
+        <v>0.001693789645533523</v>
       </c>
       <c r="P8">
-        <v>0.93966271578105</v>
+        <v>0.001693789645533523</v>
       </c>
       <c r="Q8">
-        <v>54.90474948585837</v>
+        <v>0.014054910727</v>
       </c>
       <c r="R8">
-        <v>54.90474948585837</v>
+        <v>0.126494196543</v>
       </c>
       <c r="S8">
-        <v>0.01394312468579676</v>
+        <v>3.29316003937622E-06</v>
       </c>
       <c r="T8">
-        <v>0.01394312468579676</v>
+        <v>3.29316003937622E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.510522657883984</v>
+        <v>0.06926433333333333</v>
       </c>
       <c r="H9">
-        <v>0.510522657883984</v>
+        <v>0.207793</v>
       </c>
       <c r="I9">
-        <v>0.01483843559144219</v>
+        <v>0.001944255621151182</v>
       </c>
       <c r="J9">
-        <v>0.01483843559144219</v>
+        <v>0.001944255621151182</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.06730020961934</v>
+        <v>1.878547</v>
       </c>
       <c r="N9">
-        <v>5.06730020961934</v>
+        <v>5.635641</v>
       </c>
       <c r="O9">
-        <v>0.04427450730783349</v>
+        <v>0.01568061550904095</v>
       </c>
       <c r="P9">
-        <v>0.04427450730783349</v>
+        <v>0.01568061550904095</v>
       </c>
       <c r="Q9">
-        <v>2.586971571310935</v>
+        <v>0.1301163055903333</v>
       </c>
       <c r="R9">
-        <v>2.586971571310935</v>
+        <v>1.171046750313</v>
       </c>
       <c r="S9">
-        <v>0.0006569644250301235</v>
+        <v>3.048712484656327E-05</v>
       </c>
       <c r="T9">
-        <v>0.0006569644250301235</v>
+        <v>3.048712484656327E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,495 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>6.645968000000001</v>
+      </c>
+      <c r="H10">
+        <v>19.937904</v>
+      </c>
+      <c r="I10">
+        <v>0.1865528767859006</v>
+      </c>
+      <c r="J10">
+        <v>0.1865528767859006</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>112.530174</v>
+      </c>
+      <c r="N10">
+        <v>337.590522</v>
+      </c>
+      <c r="O10">
+        <v>0.9393123470743489</v>
+      </c>
+      <c r="P10">
+        <v>0.9393123470743489</v>
+      </c>
+      <c r="Q10">
+        <v>747.871935438432</v>
+      </c>
+      <c r="R10">
+        <v>6730.847418945889</v>
+      </c>
+      <c r="S10">
+        <v>0.1752314205472361</v>
+      </c>
+      <c r="T10">
+        <v>0.1752314205472361</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>6.645968000000001</v>
+      </c>
+      <c r="H11">
+        <v>19.937904</v>
+      </c>
+      <c r="I11">
+        <v>0.1865528767859006</v>
+      </c>
+      <c r="J11">
+        <v>0.1865528767859006</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>5.188952666666666</v>
+      </c>
+      <c r="N11">
+        <v>15.566858</v>
+      </c>
+      <c r="O11">
+        <v>0.04331324777107665</v>
+      </c>
+      <c r="P11">
+        <v>0.04331324777107665</v>
+      </c>
+      <c r="Q11">
+        <v>34.48561337618133</v>
+      </c>
+      <c r="R11">
+        <v>310.3705203856321</v>
+      </c>
+      <c r="S11">
+        <v>0.008080210974634846</v>
+      </c>
+      <c r="T11">
+        <v>0.008080210974634846</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>6.645968000000001</v>
+      </c>
+      <c r="H12">
+        <v>19.937904</v>
+      </c>
+      <c r="I12">
+        <v>0.1865528767859006</v>
+      </c>
+      <c r="J12">
+        <v>0.1865528767859006</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.202917</v>
+      </c>
+      <c r="N12">
+        <v>0.608751</v>
+      </c>
+      <c r="O12">
+        <v>0.001693789645533523</v>
+      </c>
+      <c r="P12">
+        <v>0.001693789645533523</v>
+      </c>
+      <c r="Q12">
+        <v>1.348579888656</v>
+      </c>
+      <c r="R12">
+        <v>12.137218997904</v>
+      </c>
+      <c r="S12">
+        <v>0.0003159813310444495</v>
+      </c>
+      <c r="T12">
+        <v>0.0003159813310444496</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>6.645968000000001</v>
+      </c>
+      <c r="H13">
+        <v>19.937904</v>
+      </c>
+      <c r="I13">
+        <v>0.1865528767859006</v>
+      </c>
+      <c r="J13">
+        <v>0.1865528767859006</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.878547</v>
+      </c>
+      <c r="N13">
+        <v>5.635641</v>
+      </c>
+      <c r="O13">
+        <v>0.01568061550904095</v>
+      </c>
+      <c r="P13">
+        <v>0.01568061550904095</v>
+      </c>
+      <c r="Q13">
+        <v>12.484763248496</v>
+      </c>
+      <c r="R13">
+        <v>112.362869236464</v>
+      </c>
+      <c r="S13">
+        <v>0.002925263932985198</v>
+      </c>
+      <c r="T13">
+        <v>0.002925263932985198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.8073796666666667</v>
+      </c>
+      <c r="H14">
+        <v>2.422139</v>
+      </c>
+      <c r="I14">
+        <v>0.02266321467017418</v>
+      </c>
+      <c r="J14">
+        <v>0.02266321467017418</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>112.530174</v>
+      </c>
+      <c r="N14">
+        <v>337.590522</v>
+      </c>
+      <c r="O14">
+        <v>0.9393123470743489</v>
+      </c>
+      <c r="P14">
+        <v>0.9393123470743489</v>
+      </c>
+      <c r="Q14">
+        <v>90.85457437406201</v>
+      </c>
+      <c r="R14">
+        <v>817.691169366558</v>
+      </c>
+      <c r="S14">
+        <v>0.02128783736409112</v>
+      </c>
+      <c r="T14">
+        <v>0.02128783736409113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.8073796666666667</v>
+      </c>
+      <c r="H15">
+        <v>2.422139</v>
+      </c>
+      <c r="I15">
+        <v>0.02266321467017418</v>
+      </c>
+      <c r="J15">
+        <v>0.02266321467017418</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>5.188952666666666</v>
+      </c>
+      <c r="N15">
+        <v>15.566858</v>
+      </c>
+      <c r="O15">
+        <v>0.04331324777107665</v>
+      </c>
+      <c r="P15">
+        <v>0.04331324777107665</v>
+      </c>
+      <c r="Q15">
+        <v>4.189454874362444</v>
+      </c>
+      <c r="R15">
+        <v>37.705093869262</v>
+      </c>
+      <c r="S15">
+        <v>0.0009816174322983533</v>
+      </c>
+      <c r="T15">
+        <v>0.0009816174322983533</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.510522657883984</v>
-      </c>
-      <c r="H10">
-        <v>0.510522657883984</v>
-      </c>
-      <c r="I10">
-        <v>0.01483843559144219</v>
-      </c>
-      <c r="J10">
-        <v>0.01483843559144219</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1.83841487479113</v>
-      </c>
-      <c r="N10">
-        <v>1.83841487479113</v>
-      </c>
-      <c r="O10">
-        <v>0.01606277691111656</v>
-      </c>
-      <c r="P10">
-        <v>0.01606277691111656</v>
-      </c>
-      <c r="Q10">
-        <v>0.9385524481718193</v>
-      </c>
-      <c r="R10">
-        <v>0.9385524481718193</v>
-      </c>
-      <c r="S10">
-        <v>0.0002383464806153078</v>
-      </c>
-      <c r="T10">
-        <v>0.0002383464806153078</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.8073796666666667</v>
+      </c>
+      <c r="H16">
+        <v>2.422139</v>
+      </c>
+      <c r="I16">
+        <v>0.02266321467017418</v>
+      </c>
+      <c r="J16">
+        <v>0.02266321467017418</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.202917</v>
+      </c>
+      <c r="N16">
+        <v>0.608751</v>
+      </c>
+      <c r="O16">
+        <v>0.001693789645533523</v>
+      </c>
+      <c r="P16">
+        <v>0.001693789645533523</v>
+      </c>
+      <c r="Q16">
+        <v>0.163831059821</v>
+      </c>
+      <c r="R16">
+        <v>1.474479538389</v>
+      </c>
+      <c r="S16">
+        <v>3.838671834284446E-05</v>
+      </c>
+      <c r="T16">
+        <v>3.838671834284446E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.8073796666666667</v>
+      </c>
+      <c r="H17">
+        <v>2.422139</v>
+      </c>
+      <c r="I17">
+        <v>0.02266321467017418</v>
+      </c>
+      <c r="J17">
+        <v>0.02266321467017418</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.878547</v>
+      </c>
+      <c r="N17">
+        <v>5.635641</v>
+      </c>
+      <c r="O17">
+        <v>0.01568061550904095</v>
+      </c>
+      <c r="P17">
+        <v>0.01568061550904095</v>
+      </c>
+      <c r="Q17">
+        <v>1.516700650677667</v>
+      </c>
+      <c r="R17">
+        <v>13.650305856099</v>
+      </c>
+      <c r="S17">
+        <v>0.0003553731554418576</v>
+      </c>
+      <c r="T17">
+        <v>0.0003553731554418575</v>
       </c>
     </row>
   </sheetData>
